--- a/src/Excel/entregable4/CondonacionDeuda.xlsx
+++ b/src/Excel/entregable4/CondonacionDeuda.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23392D91-60D9-4549-A92B-F4B72C3F6B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931ABC67-6773-43F2-BEB0-271B715299AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -60,16 +60,35 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>ACHACALTANASP1</t>
-  </si>
-  <si>
-    <t>cvelasco</t>
+    <t>mrobles</t>
+  </si>
+  <si>
+    <t>walfaro</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:31:57</t>
+  </si>
+  <si>
+    <t>AAACT23221SMGYLJ5</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:35:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,19 +434,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -471,6 +490,15 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable4/CondonacionDeuda.xlsx
+++ b/src/Excel/entregable4/CondonacionDeuda.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931ABC67-6773-43F2-BEB0-271B715299AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E59AEF-FDE4-49A0-8254-7DBA0D47D8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>walfaro</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9 ago. 2023, 09:31:57</t>
   </si>
   <si>
     <t>AAACT23221SMGYLJ5</t>
@@ -88,7 +79,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,19 +424,19 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="9.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.90625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -492,13 +482,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
